--- a/analysis/data/derived_data/flaking_intensity_and_shape_spheroid.xlsx
+++ b/analysis/data/derived_data/flaking_intensity_and_shape_spheroid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lithic_Analysis\QSYSpheroidsStudy\analysis\data\derived_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A6BAEC-2B73-4E9E-9999-8B485425A5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AD6D37-B93D-4BB2-BB43-591424C1F518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4986D3CE-FD73-4EF0-863C-1E0FE522A14A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4986D3CE-FD73-4EF0-863C-1E0FE522A14A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QSY_A_2048</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QSY_A_2213</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,6 +112,10 @@
   </si>
   <si>
     <t>QSY_B_072</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSY_A_0682</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,11 +123,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.00000_);[Red]\(0.00000\)"/>
-    <numFmt numFmtId="177" formatCode="0.00000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000000_);[Red]\(0.000000\)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,11 +147,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -187,7 +190,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -195,9 +198,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -529,183 +529,183 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.4" thickBot="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.83676801703266734</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.4379480619199417E-4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>123.5848916814592</v>
+      </c>
+      <c r="F3" s="2">
+        <v>9.2195445714432296</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.91667152267275898</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1.01039006872008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="2">
         <v>29</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C4" s="2">
         <v>0.97311349082688492</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="2">
         <v>2.6049293851251021E-3</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E4" s="2">
         <v>128.338268573552</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F4" s="2">
         <v>7.9980706218671402</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G4" s="2">
         <v>0.91914375907962997</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H4" s="2">
         <v>1.0128569569046999</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2">
         <v>31</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="2">
         <v>0.92066214879150288</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="2">
         <v>3.0660641277005028E-3</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E5" s="2">
         <v>123.93586641083201</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F5" s="2">
         <v>8.0903535714933597</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G5" s="2">
         <v>0.89345869606101302</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H5" s="2">
         <v>1.0108586624567799</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="2">
         <v>14</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="2">
         <v>0.92673529285966905</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="2">
         <v>5.2757492835815104E-3</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E6" s="2">
         <v>122.208326974908</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F6" s="2">
         <v>7.9792261789233399</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G6" s="2">
         <v>0.89677785094664098</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H6" s="2">
         <v>1.01123055465165</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="2">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="2">
         <v>0.68140111340010023</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
         <v>5.1440205512880263E-4</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E7" s="2">
         <v>109.423121144577</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F7" s="2">
         <v>9.9018901009435396</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G7" s="2">
         <v>0.90112023234401095</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H7" s="2">
         <v>1.0114625047224299</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B7" s="2">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.85107809733121453</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3.722518969026036E-4</v>
-      </c>
-      <c r="E7" s="3">
-        <v>118.574342209842</v>
-      </c>
-      <c r="F7" s="2">
-        <v>8.1328470753614504</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.89114064489367595</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1.0300395956189301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="B8" s="2">
         <v>26</v>
@@ -716,7 +716,7 @@
       <c r="D8" s="2">
         <v>1.8521298824031448E-3</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>114.985384065673</v>
       </c>
       <c r="F8" s="2">
@@ -729,9 +729,9 @@
         <v>1.01078651909895</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2">
         <v>22</v>
@@ -742,7 +742,7 @@
       <c r="D9" s="2">
         <v>1.3443117489253878E-3</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>124.385213771381</v>
       </c>
       <c r="F9" s="2">
@@ -755,9 +755,9 @@
         <v>1.0104906072626301</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2">
         <v>20</v>
@@ -768,7 +768,7 @@
       <c r="D10" s="2">
         <v>1.0228988436665595E-3</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>122.42592768389</v>
       </c>
       <c r="F10" s="2">
@@ -781,9 +781,9 @@
         <v>1.0113858172997301</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2">
         <v>27</v>
@@ -794,7 +794,7 @@
       <c r="D11" s="2">
         <v>1.4376892538191495E-3</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>134.92571382911399</v>
       </c>
       <c r="F11" s="2">
@@ -807,9 +807,9 @@
         <v>1.0091197553155</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2">
         <v>28</v>
@@ -820,7 +820,7 @@
       <c r="D12" s="2">
         <v>2.000479443476907E-3</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>135.40337751557701</v>
       </c>
       <c r="F12" s="2">
@@ -833,9 +833,9 @@
         <v>1.00438246002945</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2">
         <v>14</v>
@@ -846,7 +846,7 @@
       <c r="D13" s="2">
         <v>2.6124948249043358E-4</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>120.9312663379</v>
       </c>
       <c r="F13" s="2">
@@ -859,9 +859,9 @@
         <v>1.0147381894682099</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
@@ -872,7 +872,7 @@
       <c r="D14" s="2">
         <v>1.5618284930595875E-4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>115.48421710219</v>
       </c>
       <c r="F14" s="2">
@@ -885,9 +885,9 @@
         <v>1.02041757098209</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>15</v>
@@ -898,7 +898,7 @@
       <c r="D15" s="2">
         <v>1.4048741584440866E-3</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>117.941265283842</v>
       </c>
       <c r="F15" s="2">
